--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -3524,7 +3524,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20000057</t>
+          <t>20000058</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>60000152</t>
+          <t>60000165</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>123</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>60000153</t>
+          <t>60000166</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>124</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4293,7 +4293,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>60000154</t>
+          <t>60000167</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -3332,7 +3332,7 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>Original Asset That Was Transferred (4)</t>
+          <t>Original asset that was transferred (4)</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -3302,7 +3302,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Manufacturer of Asset (30)</t>
+          <t>Manufacturer of asset (30)</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>Planned Useful Life in Years (3)</t>
+          <t>Planned useful life in years (3)</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>Planned Useful Life in Years (3)</t>
+          <t>Planned useful life in years (3)</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>Planned Useful Life in Years (3)</t>
+          <t>Planned useful life in years (3)</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -3472,7 +3472,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>Planned Useful Life in Years (3)</t>
+          <t>Planned useful life in years (3)</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="BK5" t="inlineStr">
         <is>
-          <t>Planned Useful Life in Years (3)</t>
+          <t>Planned useful life in years (3)</t>
         </is>
       </c>
       <c r="BL5" t="inlineStr">

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -3524,7 +3524,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20000059</t>
+          <t>20000060</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>60000170</t>
+          <t>60000171</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>128</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>60000171</t>
+          <t>60000172</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>129</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4293,7 +4293,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>60000172</t>
+          <t>60000173</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -3673,7 +3673,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>60000171</t>
+          <t>60000175</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>131</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>60000172</t>
+          <t>60000176</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>132</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4293,7 +4293,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>60000173</t>
+          <t>60000177</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -666,19 +666,19 @@
     <t>*Main Asset Number (12)</t>
   </si>
   <si>
-    <t>20000060</t>
-  </si>
-  <si>
-    <t>60000175</t>
+    <t>20000061</t>
+  </si>
+  <si>
+    <t>60000180</t>
   </si>
   <si>
     <t>60000000</t>
   </si>
   <si>
-    <t>60000176</t>
-  </si>
-  <si>
-    <t>60000177</t>
+    <t>60000181</t>
+  </si>
+  <si>
+    <t>60000182</t>
   </si>
   <si>
     <t>*Asset Subnumber (4)</t>
@@ -687,10 +687,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>132</t>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
   </si>
   <si>
     <t>Asset Description (50)</t>

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -666,19 +666,19 @@
     <t>*Main Asset Number (12)</t>
   </si>
   <si>
-    <t>20000061</t>
-  </si>
-  <si>
-    <t>60000180</t>
+    <t>20000062</t>
+  </si>
+  <si>
+    <t>60000188</t>
   </si>
   <si>
     <t>60000000</t>
   </si>
   <si>
-    <t>60000181</t>
-  </si>
-  <si>
-    <t>60000182</t>
+    <t>60000189</t>
+  </si>
+  <si>
+    <t>60000190</t>
   </si>
   <si>
     <t>*Asset Subnumber (4)</t>
@@ -687,10 +687,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>136</t>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
   </si>
   <si>
     <t>Asset Description (50)</t>

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="288">
   <si>
     <t>Overview</t>
   </si>
@@ -666,19 +666,19 @@
     <t>*Main Asset Number (12)</t>
   </si>
   <si>
-    <t>20000062</t>
-  </si>
-  <si>
-    <t>60000188</t>
+    <t>20000063</t>
+  </si>
+  <si>
+    <t>60000196</t>
   </si>
   <si>
     <t>60000000</t>
   </si>
   <si>
-    <t>60000189</t>
-  </si>
-  <si>
-    <t>60000190</t>
+    <t>60000197</t>
+  </si>
+  <si>
+    <t>60000198</t>
   </si>
   <si>
     <t>*Asset Subnumber (4)</t>
@@ -687,10 +687,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>143</t>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
   </si>
   <si>
     <t>Asset Description (50)</t>
@@ -760,9 +760,6 @@
   </si>
   <si>
     <t>Base Unit of Measure (3)</t>
-  </si>
-  <si>
-    <t>KG</t>
   </si>
   <si>
     <t>Last Inventory Date (YYYY-MM-DD)</t>
@@ -2826,172 +2823,172 @@
         <v>247</v>
       </c>
       <c r="J5" t="s">
+        <v>248</v>
+      </c>
+      <c r="K5" t="s">
         <v>249</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>250</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>251</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>252</v>
       </c>
-      <c r="N5" t="s">
-        <v>253</v>
-      </c>
       <c r="O5" t="s">
+        <v>254</v>
+      </c>
+      <c r="P5" t="s">
         <v>255</v>
       </c>
-      <c r="P5" t="s">
-        <v>256</v>
-      </c>
       <c r="Q5" t="s">
+        <v>257</v>
+      </c>
+      <c r="R5" t="s">
         <v>258</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>259</v>
       </c>
-      <c r="S5" t="s">
-        <v>260</v>
-      </c>
       <c r="T5" t="s">
+        <v>261</v>
+      </c>
+      <c r="U5" t="s">
         <v>262</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>263</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>264</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>265</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>266</v>
       </c>
-      <c r="Y5" t="s">
-        <v>267</v>
-      </c>
       <c r="Z5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA5" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB5" t="s">
         <v>271</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>272</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>273</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>274</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>275</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>276</v>
       </c>
       <c r="AG5" t="s">
         <v>178</v>
       </c>
       <c r="AH5" t="s">
+        <v>276</v>
+      </c>
+      <c r="AI5" t="s">
         <v>277</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>278</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>278</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>277</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO5" t="s">
         <v>279</v>
       </c>
-      <c r="AK5" t="s">
-        <v>278</v>
-      </c>
-      <c r="AL5" t="s">
+      <c r="AP5" t="s">
+        <v>280</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>282</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AT5" t="s">
         <v>279</v>
       </c>
-      <c r="AM5" t="s">
-        <v>278</v>
-      </c>
-      <c r="AN5" t="s">
+      <c r="AU5" t="s">
+        <v>280</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>282</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AY5" t="s">
         <v>279</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AZ5" t="s">
         <v>280</v>
       </c>
-      <c r="AP5" t="s">
-        <v>281</v>
-      </c>
-      <c r="AQ5" t="s">
+      <c r="BA5" t="s">
+        <v>282</v>
+      </c>
+      <c r="BB5" t="s">
         <v>283</v>
       </c>
-      <c r="AR5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>252</v>
-      </c>
-      <c r="AT5" t="s">
+      <c r="BC5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>279</v>
+      </c>
+      <c r="BE5" t="s">
         <v>280</v>
       </c>
-      <c r="AU5" t="s">
-        <v>281</v>
-      </c>
-      <c r="AV5" t="s">
+      <c r="BF5" t="s">
+        <v>282</v>
+      </c>
+      <c r="BG5" t="s">
         <v>283</v>
       </c>
-      <c r="AW5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>252</v>
-      </c>
-      <c r="AY5" t="s">
+      <c r="BH5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>279</v>
+      </c>
+      <c r="BJ5" t="s">
         <v>280</v>
       </c>
-      <c r="AZ5" t="s">
-        <v>281</v>
-      </c>
-      <c r="BA5" t="s">
+      <c r="BK5" t="s">
+        <v>282</v>
+      </c>
+      <c r="BL5" t="s">
         <v>283</v>
       </c>
-      <c r="BB5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>252</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>280</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>281</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>283</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>284</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>252</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>280</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>281</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>283</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>284</v>
-      </c>
       <c r="BM5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -3017,16 +3014,16 @@
         <v>240</v>
       </c>
       <c r="S6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Y6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AO6">
         <v>1</v>
       </c>
       <c r="AP6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AQ6" t="s">
         <v>194</v>
@@ -3035,10 +3032,10 @@
         <v>208</v>
       </c>
       <c r="AT6" t="s">
+        <v>284</v>
+      </c>
+      <c r="AU6" t="s">
         <v>285</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>286</v>
       </c>
       <c r="AV6" t="s">
         <v>200</v>
@@ -3047,10 +3044,10 @@
         <v>194</v>
       </c>
       <c r="AY6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>287</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>288</v>
       </c>
       <c r="BA6" t="s">
         <v>193</v>
@@ -3081,23 +3078,20 @@
       <c r="G7" t="s">
         <v>241</v>
       </c>
-      <c r="I7" t="s">
-        <v>248</v>
-      </c>
       <c r="N7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Z7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AO7">
         <v>1</v>
       </c>
       <c r="AP7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AQ7" t="s">
         <v>194</v>
@@ -3106,10 +3100,10 @@
         <v>208</v>
       </c>
       <c r="AT7" t="s">
+        <v>284</v>
+      </c>
+      <c r="AU7" t="s">
         <v>285</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>286</v>
       </c>
       <c r="AV7" t="s">
         <v>200</v>
@@ -3118,10 +3112,10 @@
         <v>194</v>
       </c>
       <c r="AY7" t="s">
+        <v>286</v>
+      </c>
+      <c r="AZ7" t="s">
         <v>287</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>288</v>
       </c>
       <c r="BA7" t="s">
         <v>193</v>
@@ -3152,23 +3146,20 @@
       <c r="G8" t="s">
         <v>242</v>
       </c>
-      <c r="I8" t="s">
-        <v>248</v>
-      </c>
       <c r="N8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Y8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AO8">
         <v>1</v>
       </c>
       <c r="AP8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AQ8" t="s">
         <v>194</v>
@@ -3177,10 +3168,10 @@
         <v>208</v>
       </c>
       <c r="AT8" t="s">
+        <v>284</v>
+      </c>
+      <c r="AU8" t="s">
         <v>285</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>286</v>
       </c>
       <c r="AV8" t="s">
         <v>200</v>
@@ -3189,10 +3180,10 @@
         <v>194</v>
       </c>
       <c r="AY8" t="s">
+        <v>286</v>
+      </c>
+      <c r="AZ8" t="s">
         <v>287</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>288</v>
       </c>
       <c r="BA8" t="s">
         <v>193</v>
@@ -3224,16 +3215,16 @@
         <v>243</v>
       </c>
       <c r="S9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Z9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AO9">
         <v>1</v>
       </c>
       <c r="AP9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AQ9" t="s">
         <v>194</v>
@@ -3242,10 +3233,10 @@
         <v>208</v>
       </c>
       <c r="AT9" t="s">
+        <v>284</v>
+      </c>
+      <c r="AU9" t="s">
         <v>285</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>286</v>
       </c>
       <c r="AV9" t="s">
         <v>200</v>
@@ -3254,10 +3245,10 @@
         <v>194</v>
       </c>
       <c r="AY9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AZ9" t="s">
         <v>287</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>288</v>
       </c>
       <c r="BA9" t="s">
         <v>193</v>
@@ -3288,23 +3279,20 @@
       <c r="G10" t="s">
         <v>244</v>
       </c>
-      <c r="I10" t="s">
-        <v>248</v>
-      </c>
       <c r="N10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Y10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AO10">
         <v>1</v>
       </c>
       <c r="AP10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AQ10" t="s">
         <v>194</v>
@@ -3313,10 +3301,10 @@
         <v>208</v>
       </c>
       <c r="AT10" t="s">
+        <v>284</v>
+      </c>
+      <c r="AU10" t="s">
         <v>285</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>286</v>
       </c>
       <c r="AV10" t="s">
         <v>200</v>
@@ -3325,10 +3313,10 @@
         <v>194</v>
       </c>
       <c r="AY10" t="s">
+        <v>286</v>
+      </c>
+      <c r="AZ10" t="s">
         <v>287</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>288</v>
       </c>
       <c r="BA10" t="s">
         <v>193</v>
@@ -3360,16 +3348,16 @@
         <v>245</v>
       </c>
       <c r="S11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Z11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AO11">
         <v>1</v>
       </c>
       <c r="AP11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AQ11" t="s">
         <v>194</v>
@@ -3378,10 +3366,10 @@
         <v>208</v>
       </c>
       <c r="AT11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AU11" t="s">
         <v>285</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>286</v>
       </c>
       <c r="AV11" t="s">
         <v>200</v>
@@ -3390,10 +3378,10 @@
         <v>194</v>
       </c>
       <c r="AY11" t="s">
+        <v>286</v>
+      </c>
+      <c r="AZ11" t="s">
         <v>287</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>288</v>
       </c>
       <c r="BA11" t="s">
         <v>193</v>

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -666,19 +666,19 @@
     <t>*Main Asset Number (12)</t>
   </si>
   <si>
-    <t>20000063</t>
-  </si>
-  <si>
-    <t>60000196</t>
+    <t>20000065</t>
+  </si>
+  <si>
+    <t>60000212</t>
   </si>
   <si>
     <t>60000000</t>
   </si>
   <si>
-    <t>60000197</t>
-  </si>
-  <si>
-    <t>60000198</t>
+    <t>60000213</t>
+  </si>
+  <si>
+    <t>60000214</t>
   </si>
   <si>
     <t>*Asset Subnumber (4)</t>
@@ -687,10 +687,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>150</t>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
   </si>
   <si>
     <t>Asset Description (50)</t>
@@ -879,7 +879,7 @@
     <t>34</t>
   </si>
   <si>
-    <t>SUL2</t>
+    <t>MANU</t>
   </si>
 </sst>
 </file>

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -666,19 +666,19 @@
     <t>*Main Asset Number (12)</t>
   </si>
   <si>
-    <t>20000065</t>
-  </si>
-  <si>
-    <t>60000212</t>
+    <t>20000066</t>
+  </si>
+  <si>
+    <t>60000220</t>
   </si>
   <si>
     <t>60000000</t>
   </si>
   <si>
-    <t>60000213</t>
-  </si>
-  <si>
-    <t>60000214</t>
+    <t>60000221</t>
+  </si>
+  <si>
+    <t>60000222</t>
   </si>
   <si>
     <t>*Asset Subnumber (4)</t>
@@ -687,10 +687,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>164</t>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
   </si>
   <si>
     <t>Asset Description (50)</t>

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -666,19 +666,19 @@
     <t>*Main Asset Number (12)</t>
   </si>
   <si>
-    <t>20000066</t>
-  </si>
-  <si>
-    <t>60000220</t>
+    <t>20000067</t>
+  </si>
+  <si>
+    <t>60000228</t>
   </si>
   <si>
     <t>60000000</t>
   </si>
   <si>
-    <t>60000221</t>
-  </si>
-  <si>
-    <t>60000222</t>
+    <t>60000229</t>
+  </si>
+  <si>
+    <t>60000230</t>
   </si>
   <si>
     <t>*Asset Subnumber (4)</t>
@@ -687,10 +687,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>171</t>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
   </si>
   <si>
     <t>Asset Description (50)</t>

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -666,19 +666,19 @@
     <t>*Main Asset Number (12)</t>
   </si>
   <si>
-    <t>20000067</t>
-  </si>
-  <si>
-    <t>60000228</t>
+    <t>20000069</t>
+  </si>
+  <si>
+    <t>60000244</t>
   </si>
   <si>
     <t>60000000</t>
   </si>
   <si>
-    <t>60000229</t>
-  </si>
-  <si>
-    <t>60000230</t>
+    <t>60000245</t>
+  </si>
+  <si>
+    <t>60000246</t>
   </si>
   <si>
     <t>*Asset Subnumber (4)</t>
@@ -687,10 +687,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>178</t>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
   </si>
   <si>
     <t>Asset Description (50)</t>

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -666,19 +666,19 @@
     <t>*Main Asset Number (12)</t>
   </si>
   <si>
-    <t>20000069</t>
-  </si>
-  <si>
-    <t>60000244</t>
+    <t>20000070</t>
+  </si>
+  <si>
+    <t>60000252</t>
   </si>
   <si>
     <t>60000000</t>
   </si>
   <si>
-    <t>60000245</t>
-  </si>
-  <si>
-    <t>60000246</t>
+    <t>60000253</t>
+  </si>
+  <si>
+    <t>60000254</t>
   </si>
   <si>
     <t>*Asset Subnumber (4)</t>
@@ -687,10 +687,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>192</t>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
   </si>
   <si>
     <t>Asset Description (50)</t>

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -666,19 +666,19 @@
     <t>*Main Asset Number (12)</t>
   </si>
   <si>
-    <t>20000070</t>
-  </si>
-  <si>
-    <t>60000252</t>
+    <t>20000072</t>
+  </si>
+  <si>
+    <t>60000268</t>
   </si>
   <si>
     <t>60000000</t>
   </si>
   <si>
-    <t>60000253</t>
-  </si>
-  <si>
-    <t>60000254</t>
+    <t>60000269</t>
+  </si>
+  <si>
+    <t>60000270</t>
   </si>
   <si>
     <t>*Asset Subnumber (4)</t>
@@ -687,10 +687,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
   </si>
   <si>
     <t>Asset Description (50)</t>

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -666,19 +666,19 @@
     <t>*Main Asset Number (12)</t>
   </si>
   <si>
-    <t>20000072</t>
-  </si>
-  <si>
-    <t>60000268</t>
+    <t>20000074</t>
+  </si>
+  <si>
+    <t>60000284</t>
   </si>
   <si>
     <t>60000000</t>
   </si>
   <si>
-    <t>60000269</t>
-  </si>
-  <si>
-    <t>60000270</t>
+    <t>60000285</t>
+  </si>
+  <si>
+    <t>60000286</t>
   </si>
   <si>
     <t>*Asset Subnumber (4)</t>
@@ -687,10 +687,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>213</t>
+    <t>226</t>
+  </si>
+  <si>
+    <t>227</t>
   </si>
   <si>
     <t>Asset Description (50)</t>

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -666,19 +666,19 @@
     <t>*Main Asset Number (12)</t>
   </si>
   <si>
-    <t>20000074</t>
-  </si>
-  <si>
-    <t>60000284</t>
+    <t>20000075</t>
+  </si>
+  <si>
+    <t>60000302</t>
   </si>
   <si>
     <t>60000000</t>
   </si>
   <si>
-    <t>60000285</t>
-  </si>
-  <si>
-    <t>60000286</t>
+    <t>60000303</t>
+  </si>
+  <si>
+    <t>60000304</t>
   </si>
   <si>
     <t>*Asset Subnumber (4)</t>
@@ -687,10 +687,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>227</t>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
   </si>
   <si>
     <t>Asset Description (50)</t>

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -666,19 +666,19 @@
     <t>*Main Asset Number (12)</t>
   </si>
   <si>
-    <t>20000075</t>
-  </si>
-  <si>
-    <t>60000302</t>
+    <t>20000077</t>
+  </si>
+  <si>
+    <t>60000335</t>
   </si>
   <si>
     <t>60000000</t>
   </si>
   <si>
-    <t>60000303</t>
-  </si>
-  <si>
-    <t>60000304</t>
+    <t>60000336</t>
+  </si>
+  <si>
+    <t>60000337</t>
   </si>
   <si>
     <t>*Asset Subnumber (4)</t>
@@ -687,10 +687,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>234</t>
+    <t>247</t>
+  </si>
+  <si>
+    <t>248</t>
   </si>
   <si>
     <t>Asset Description (50)</t>

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -666,19 +666,19 @@
     <t>*Main Asset Number (12)</t>
   </si>
   <si>
-    <t>20000077</t>
-  </si>
-  <si>
-    <t>60000335</t>
+    <t>20000078</t>
+  </si>
+  <si>
+    <t>60000343</t>
   </si>
   <si>
     <t>60000000</t>
   </si>
   <si>
-    <t>60000336</t>
-  </si>
-  <si>
-    <t>60000337</t>
+    <t>60000344</t>
+  </si>
+  <si>
+    <t>60000345</t>
   </si>
   <si>
     <t>*Asset Subnumber (4)</t>
@@ -687,10 +687,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>248</t>
+    <t>254</t>
+  </si>
+  <si>
+    <t>255</t>
   </si>
   <si>
     <t>Asset Description (50)</t>

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -666,19 +666,19 @@
     <t>*Main Asset Number (12)</t>
   </si>
   <si>
-    <t>20000078</t>
-  </si>
-  <si>
-    <t>60000343</t>
+    <t>20000079</t>
+  </si>
+  <si>
+    <t>60000361</t>
   </si>
   <si>
     <t>60000000</t>
   </si>
   <si>
-    <t>60000344</t>
-  </si>
-  <si>
-    <t>60000345</t>
+    <t>60000362</t>
+  </si>
+  <si>
+    <t>60000363</t>
   </si>
   <si>
     <t>*Asset Subnumber (4)</t>
@@ -687,10 +687,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>255</t>
+    <t>261</t>
+  </si>
+  <si>
+    <t>262</t>
   </si>
   <si>
     <t>Asset Description (50)</t>

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -666,19 +666,19 @@
     <t>*Main Asset Number (12)</t>
   </si>
   <si>
-    <t>20000079</t>
-  </si>
-  <si>
-    <t>60000361</t>
+    <t>20000080</t>
+  </si>
+  <si>
+    <t>60000369</t>
   </si>
   <si>
     <t>60000000</t>
   </si>
   <si>
-    <t>60000362</t>
-  </si>
-  <si>
-    <t>60000363</t>
+    <t>60000370</t>
+  </si>
+  <si>
+    <t>60000371</t>
   </si>
   <si>
     <t>*Asset Subnumber (4)</t>
@@ -687,10 +687,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>262</t>
+    <t>268</t>
+  </si>
+  <si>
+    <t>269</t>
   </si>
   <si>
     <t>Asset Description (50)</t>
@@ -777,7 +777,7 @@
     <t>Cost Center (10)</t>
   </si>
   <si>
-    <t>17101201</t>
+    <t>17101904</t>
   </si>
   <si>
     <t>Work Breakdown Structure Element (WBS Element) (24)</t>
@@ -786,7 +786,7 @@
     <t>Profit Center (10)</t>
   </si>
   <si>
-    <t>Y700</t>
+    <t>YB103</t>
   </si>
   <si>
     <t>Segment for Segmental Reporting (10)</t>

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -666,19 +666,19 @@
     <t>*Main Asset Number (12)</t>
   </si>
   <si>
-    <t>20000080</t>
-  </si>
-  <si>
-    <t>60000369</t>
+    <t>20000081</t>
+  </si>
+  <si>
+    <t>60000387</t>
   </si>
   <si>
     <t>60000000</t>
   </si>
   <si>
-    <t>60000370</t>
-  </si>
-  <si>
-    <t>60000371</t>
+    <t>60000388</t>
+  </si>
+  <si>
+    <t>60000389</t>
   </si>
   <si>
     <t>*Asset Subnumber (4)</t>
@@ -687,10 +687,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>268</t>
-  </si>
-  <si>
-    <t>269</t>
+    <t>275</t>
+  </si>
+  <si>
+    <t>276</t>
   </si>
   <si>
     <t>Asset Description (50)</t>

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="290">
   <si>
     <t>Overview</t>
   </si>
@@ -486,7 +486,7 @@
     <t>Base Unit of Measure</t>
   </si>
   <si>
-    <t>Last Inventory Date</t>
+    <t>Last Inventory Date (YYYY-MM-DD)</t>
   </si>
   <si>
     <t>Inventory Indicator</t>
@@ -495,7 +495,7 @@
     <t>Supplementary Inventory Specifications</t>
   </si>
   <si>
-    <t>Date for Beginning of Validity</t>
+    <t>Date for Beginning of Validity (YYYY-MM-DD)</t>
   </si>
   <si>
     <t>Cost Center</t>
@@ -528,7 +528,7 @@
     <t>Asset Acquired Used</t>
   </si>
   <si>
-    <t>Manufacturer of Asset</t>
+    <t>Manufacturer of asset</t>
   </si>
   <si>
     <t>Asset's Country/Region of Origin</t>
@@ -546,7 +546,10 @@
     <t>Original Asset That Was Transferred</t>
   </si>
   <si>
-    <t>Original Acquisition Date of AuC/ Transferred Asset</t>
+    <t>Original asset that was transferred</t>
+  </si>
+  <si>
+    <t>Original Acquisition Date of AuC/ Transferred Asset (YYYY-MM-DD)</t>
   </si>
   <si>
     <t>Fiscal Year of Original Acquisition</t>
@@ -561,7 +564,7 @@
     <t>Ledger in General Ledger Accounting</t>
   </si>
   <si>
-    <t>Asset Capitalization Date</t>
+    <t>Asset Capitalization Date (YYYY-MM-DD)</t>
   </si>
   <si>
     <t>Depreciation Area Real or Derived</t>
@@ -570,7 +573,7 @@
     <t>Depreciation Key</t>
   </si>
   <si>
-    <t>Planned Useful Life in Years</t>
+    <t>Planned useful life in years</t>
   </si>
   <si>
     <t>Planned useful life in periods</t>
@@ -666,19 +669,19 @@
     <t>*Main Asset Number (12)</t>
   </si>
   <si>
-    <t>20000081</t>
-  </si>
-  <si>
-    <t>60000387</t>
+    <t>20000082</t>
+  </si>
+  <si>
+    <t>60000405</t>
   </si>
   <si>
     <t>60000000</t>
   </si>
   <si>
-    <t>60000388</t>
-  </si>
-  <si>
-    <t>60000389</t>
+    <t>60000406</t>
+  </si>
+  <si>
+    <t>60000407</t>
   </si>
   <si>
     <t>*Asset Subnumber (4)</t>
@@ -687,10 +690,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>276</t>
+    <t>282</t>
+  </si>
+  <si>
+    <t>283</t>
   </si>
   <si>
     <t>Asset Description (50)</t>
@@ -762,7 +765,7 @@
     <t>Base Unit of Measure (3)</t>
   </si>
   <si>
-    <t>Last Inventory Date (YYYY-MM-DD)</t>
+    <t>Last Inventory Date (YYYY-MM-DD) (8)</t>
   </si>
   <si>
     <t>Inventory Indicator (1)</t>
@@ -771,7 +774,7 @@
     <t>Supplementary Inventory Specifications (15)</t>
   </si>
   <si>
-    <t>Date for Beginning of Validity (YYYY-MM-DD)</t>
+    <t>Date for Beginning of Validity (YYYY-MM-DD) (8)</t>
   </si>
   <si>
     <t>Cost Center (10)</t>
@@ -840,19 +843,22 @@
     <t>Original asset that was transferred (4)</t>
   </si>
   <si>
-    <t>Original Acquisition Date of AuC/ Transferred Asset (YYYY-MM-DD)</t>
+    <t>Original Acquisition Date of AuC/ Transferred Asset (YYYY-MM-DD) (8)</t>
   </si>
   <si>
     <t>Fiscal Year of Original Acquisition (4)</t>
   </si>
   <si>
+    <t>Original Acquisition Value (23)</t>
+  </si>
+  <si>
     <t>Original Acquisition Value Currency (5)</t>
   </si>
   <si>
     <t>Ledger in General Ledger Accounting (2)</t>
   </si>
   <si>
-    <t>Asset Capitalization Date (YYYY-MM-DD)</t>
+    <t>Asset Capitalization Date (YYYY-MM-DD) (8)</t>
   </si>
   <si>
     <t>Depreciation Area Real or Derived (2)</t>
@@ -1624,7 +1630,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1638,61 +1644,78 @@
         <v>146</v>
       </c>
       <c r="C1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" t="s">
         <v>188</v>
       </c>
-      <c r="E1" t="s">
-        <v>192</v>
+      <c r="D2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E5" t="s">
         <v>195</v>
@@ -1700,212 +1723,209 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
         <v>191</v>
       </c>
       <c r="E12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D15" t="s">
         <v>191</v>
       </c>
       <c r="E15" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E16" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E17" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E19" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E20" t="s">
         <v>194</v>
@@ -1913,153 +1933,153 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E21" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E22" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E23" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E24" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E25" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E26" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E27" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D28" t="s">
         <v>190</v>
       </c>
       <c r="E28" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D29" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E30" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E31" t="s">
         <v>195</v>
@@ -2067,91 +2087,91 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D32" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E32" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E33" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E34" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B35" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B36" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E36" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
         <v>181</v>
@@ -2160,26 +2180,26 @@
         <v>191</v>
       </c>
       <c r="E38" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B39" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D39" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E39" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
         <v>181</v>
@@ -2188,385 +2208,371 @@
         <v>191</v>
       </c>
       <c r="E40" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D41" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E42" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B43" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D43" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E43" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B44" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D44" t="s">
         <v>190</v>
       </c>
       <c r="E44" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B45" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B46" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="D46" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="D47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E47" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B48" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D48" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E48" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B49" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D49" t="s">
         <v>190</v>
       </c>
       <c r="E49" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B50" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B51" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E51" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="D52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E52" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B53" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D53" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E53" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B54" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D54" t="s">
         <v>190</v>
       </c>
       <c r="E54" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B55" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D55" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E55" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B56" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="D56" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E56" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="D57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E57" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D58" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E58" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B59" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D59" t="s">
         <v>190</v>
       </c>
       <c r="E59" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D60" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E60" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B61" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="D61" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E61" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="D62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E62" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B63" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D63" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E63" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B64" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D64" t="s">
         <v>190</v>
       </c>
       <c r="E64" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B65" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D65" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E65" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B66" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="D66" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E66" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>145</v>
-      </c>
-      <c r="B67" t="s">
-        <v>159</v>
-      </c>
-      <c r="D67" t="s">
-        <v>191</v>
-      </c>
-      <c r="E67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2584,17 +2590,17 @@
   <sheetData>
     <row r="1" spans="1:65">
       <c r="A1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:65">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:65">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -2796,598 +2802,598 @@
     </row>
     <row r="5" spans="1:65">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N5" t="s">
+        <v>253</v>
+      </c>
+      <c r="O5" t="s">
+        <v>255</v>
+      </c>
+      <c r="P5" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>258</v>
+      </c>
+      <c r="R5" t="s">
+        <v>259</v>
+      </c>
+      <c r="S5" t="s">
+        <v>260</v>
+      </c>
+      <c r="T5" t="s">
+        <v>262</v>
+      </c>
+      <c r="U5" t="s">
+        <v>263</v>
+      </c>
+      <c r="V5" t="s">
+        <v>264</v>
+      </c>
+      <c r="W5" t="s">
+        <v>265</v>
+      </c>
+      <c r="X5" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>279</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>279</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>280</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>281</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>282</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>284</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>285</v>
+      </c>
+      <c r="AS5" t="s">
         <v>252</v>
       </c>
-      <c r="O5" t="s">
-        <v>254</v>
-      </c>
-      <c r="P5" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>257</v>
-      </c>
-      <c r="R5" t="s">
-        <v>258</v>
-      </c>
-      <c r="S5" t="s">
-        <v>259</v>
-      </c>
-      <c r="T5" t="s">
-        <v>261</v>
-      </c>
-      <c r="U5" t="s">
-        <v>262</v>
-      </c>
-      <c r="V5" t="s">
-        <v>263</v>
-      </c>
-      <c r="W5" t="s">
-        <v>264</v>
-      </c>
-      <c r="X5" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>276</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>277</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>278</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>277</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>278</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>277</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>278</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>279</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>280</v>
-      </c>
-      <c r="AQ5" t="s">
+      <c r="AT5" t="s">
+        <v>281</v>
+      </c>
+      <c r="AU5" t="s">
         <v>282</v>
       </c>
-      <c r="AR5" t="s">
-        <v>283</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>251</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>279</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>280</v>
-      </c>
       <c r="AV5" t="s">
+        <v>284</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>285</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>281</v>
+      </c>
+      <c r="AZ5" t="s">
         <v>282</v>
       </c>
-      <c r="AW5" t="s">
-        <v>283</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>251</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>279</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>280</v>
-      </c>
       <c r="BA5" t="s">
+        <v>284</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>285</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>252</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>281</v>
+      </c>
+      <c r="BE5" t="s">
         <v>282</v>
       </c>
-      <c r="BB5" t="s">
-        <v>283</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>251</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>279</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>280</v>
-      </c>
       <c r="BF5" t="s">
+        <v>284</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>285</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>252</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>281</v>
+      </c>
+      <c r="BJ5" t="s">
         <v>282</v>
       </c>
-      <c r="BG5" t="s">
-        <v>283</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>251</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>279</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>280</v>
-      </c>
       <c r="BK5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="BL5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="BM5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:65">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="S6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Y6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO6">
         <v>1</v>
       </c>
       <c r="AP6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AQ6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>288</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>289</v>
+      </c>
+      <c r="BA6" t="s">
         <v>194</v>
       </c>
-      <c r="AR6" t="s">
-        <v>208</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>285</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>194</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>287</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>193</v>
-      </c>
       <c r="BB6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:65">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO7">
         <v>1</v>
       </c>
       <c r="AP7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AQ7" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>287</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>288</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>289</v>
+      </c>
+      <c r="BA7" t="s">
         <v>194</v>
       </c>
-      <c r="AR7" t="s">
-        <v>208</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>285</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>200</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>286</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>287</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>193</v>
-      </c>
       <c r="BB7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:65">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO8">
         <v>1</v>
       </c>
       <c r="AP8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AQ8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>288</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>289</v>
+      </c>
+      <c r="BA8" t="s">
         <v>194</v>
       </c>
-      <c r="AR8" t="s">
-        <v>208</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>285</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>200</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>286</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>287</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>193</v>
-      </c>
       <c r="BB8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:65">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="S9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO9">
         <v>1</v>
       </c>
       <c r="AP9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AQ9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>287</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>288</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>289</v>
+      </c>
+      <c r="BA9" t="s">
         <v>194</v>
       </c>
-      <c r="AR9" t="s">
-        <v>208</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>285</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>200</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>194</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>286</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>287</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>193</v>
-      </c>
       <c r="BB9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:65">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO10">
         <v>1</v>
       </c>
       <c r="AP10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AQ10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>287</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>288</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>289</v>
+      </c>
+      <c r="BA10" t="s">
         <v>194</v>
       </c>
-      <c r="AR10" t="s">
-        <v>208</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>285</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>200</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>194</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>286</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>287</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>193</v>
-      </c>
       <c r="BB10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:65">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="S11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO11">
         <v>1</v>
       </c>
       <c r="AP11" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AQ11" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>287</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>288</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>289</v>
+      </c>
+      <c r="BA11" t="s">
         <v>194</v>
       </c>
-      <c r="AR11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>285</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>200</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>194</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>286</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>287</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>193</v>
-      </c>
       <c r="BB11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -669,19 +669,19 @@
     <t>*Main Asset Number (12)</t>
   </si>
   <si>
-    <t>20000082</t>
-  </si>
-  <si>
-    <t>60000405</t>
+    <t>20000083</t>
+  </si>
+  <si>
+    <t>60000423</t>
   </si>
   <si>
     <t>60000000</t>
   </si>
   <si>
-    <t>60000406</t>
-  </si>
-  <si>
-    <t>60000407</t>
+    <t>60000424</t>
+  </si>
+  <si>
+    <t>60000425</t>
   </si>
   <si>
     <t>*Asset Subnumber (4)</t>
@@ -690,10 +690,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>282</t>
-  </si>
-  <si>
-    <t>283</t>
+    <t>289</t>
+  </si>
+  <si>
+    <t>290</t>
   </si>
   <si>
     <t>Asset Description (50)</t>

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -669,19 +669,19 @@
     <t>*Main Asset Number (12)</t>
   </si>
   <si>
-    <t>20000083</t>
-  </si>
-  <si>
-    <t>60000423</t>
+    <t>20000084</t>
+  </si>
+  <si>
+    <t>60000441</t>
   </si>
   <si>
     <t>60000000</t>
   </si>
   <si>
-    <t>60000424</t>
-  </si>
-  <si>
-    <t>60000425</t>
+    <t>60000442</t>
+  </si>
+  <si>
+    <t>60000443</t>
   </si>
   <si>
     <t>*Asset Subnumber (4)</t>
@@ -690,10 +690,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>290</t>
+    <t>296</t>
+  </si>
+  <si>
+    <t>297</t>
   </si>
   <si>
     <t>Asset Description (50)</t>

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="291">
   <si>
     <t>Overview</t>
   </si>
@@ -859,6 +859,9 @@
   </si>
   <si>
     <t>Asset Capitalization Date (YYYY-MM-DD) (8)</t>
+  </si>
+  <si>
+    <t>2022-01-02</t>
   </si>
   <si>
     <t>Depreciation Area Real or Derived (2)</t>
@@ -2922,76 +2925,76 @@
         <v>280</v>
       </c>
       <c r="AO5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AP5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AQ5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AR5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AS5" t="s">
         <v>252</v>
       </c>
       <c r="AT5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AU5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AV5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AW5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AX5" t="s">
         <v>252</v>
       </c>
       <c r="AY5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AZ5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BA5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BB5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="BC5" t="s">
         <v>252</v>
       </c>
       <c r="BD5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="BE5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BF5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BG5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="BH5" t="s">
         <v>252</v>
       </c>
       <c r="BI5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="BJ5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BK5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BL5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="BM5" t="s">
         <v>252</v>
@@ -3029,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="AP6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AQ6" t="s">
         <v>195</v>
@@ -3038,10 +3041,10 @@
         <v>209</v>
       </c>
       <c r="AT6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AU6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AV6" t="s">
         <v>201</v>
@@ -3050,10 +3053,10 @@
         <v>195</v>
       </c>
       <c r="AY6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AZ6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BA6" t="s">
         <v>194</v>
@@ -3097,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="AP7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AQ7" t="s">
         <v>195</v>
@@ -3106,10 +3109,10 @@
         <v>209</v>
       </c>
       <c r="AT7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AU7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AV7" t="s">
         <v>201</v>
@@ -3118,10 +3121,10 @@
         <v>195</v>
       </c>
       <c r="AY7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AZ7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BA7" t="s">
         <v>194</v>
@@ -3165,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="AP8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AQ8" t="s">
         <v>195</v>
@@ -3174,10 +3177,10 @@
         <v>209</v>
       </c>
       <c r="AT8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AU8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AV8" t="s">
         <v>201</v>
@@ -3186,10 +3189,10 @@
         <v>195</v>
       </c>
       <c r="AY8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AZ8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BA8" t="s">
         <v>194</v>
@@ -3226,11 +3229,14 @@
       <c r="Z9" t="s">
         <v>270</v>
       </c>
+      <c r="AJ9" t="s">
+        <v>281</v>
+      </c>
       <c r="AO9">
         <v>1</v>
       </c>
       <c r="AP9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AQ9" t="s">
         <v>195</v>
@@ -3239,10 +3245,10 @@
         <v>209</v>
       </c>
       <c r="AT9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AU9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AV9" t="s">
         <v>201</v>
@@ -3251,10 +3257,10 @@
         <v>195</v>
       </c>
       <c r="AY9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AZ9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BA9" t="s">
         <v>194</v>
@@ -3298,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="AP10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AQ10" t="s">
         <v>195</v>
@@ -3307,10 +3313,10 @@
         <v>209</v>
       </c>
       <c r="AT10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AU10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AV10" t="s">
         <v>201</v>
@@ -3319,10 +3325,10 @@
         <v>195</v>
       </c>
       <c r="AY10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AZ10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BA10" t="s">
         <v>194</v>
@@ -3363,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="AP11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AQ11" t="s">
         <v>195</v>
@@ -3372,10 +3378,10 @@
         <v>209</v>
       </c>
       <c r="AT11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AU11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AV11" t="s">
         <v>201</v>
@@ -3384,10 +3390,10 @@
         <v>195</v>
       </c>
       <c r="AY11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AZ11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BA11" t="s">
         <v>194</v>

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="292">
   <si>
     <t>Overview</t>
   </si>
@@ -669,19 +669,19 @@
     <t>*Main Asset Number (12)</t>
   </si>
   <si>
-    <t>20000084</t>
-  </si>
-  <si>
-    <t>60000441</t>
+    <t>20000086</t>
+  </si>
+  <si>
+    <t>60000457</t>
   </si>
   <si>
     <t>60000000</t>
   </si>
   <si>
-    <t>60000442</t>
-  </si>
-  <si>
-    <t>60000443</t>
+    <t>60000458</t>
+  </si>
+  <si>
+    <t>60000459</t>
   </si>
   <si>
     <t>*Asset Subnumber (4)</t>
@@ -690,10 +690,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>296</t>
-  </si>
-  <si>
-    <t>297</t>
+    <t>310</t>
+  </si>
+  <si>
+    <t>311</t>
   </si>
   <si>
     <t>Asset Description (50)</t>
@@ -856,6 +856,9 @@
   </si>
   <si>
     <t>Ledger in General Ledger Accounting (2)</t>
+  </si>
+  <si>
+    <t>2L</t>
   </si>
   <si>
     <t>Asset Capitalization Date (YYYY-MM-DD) (8)</t>
@@ -2910,91 +2913,91 @@
         <v>279</v>
       </c>
       <c r="AJ5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK5" t="s">
         <v>279</v>
       </c>
       <c r="AL5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM5" t="s">
         <v>279</v>
       </c>
       <c r="AN5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AP5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AQ5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AR5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AS5" t="s">
         <v>252</v>
       </c>
       <c r="AT5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AU5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AV5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AW5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AX5" t="s">
         <v>252</v>
       </c>
       <c r="AY5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AZ5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BA5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="BB5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="BC5" t="s">
         <v>252</v>
       </c>
       <c r="BD5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BE5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BF5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="BG5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="BH5" t="s">
         <v>252</v>
       </c>
       <c r="BI5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BJ5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BK5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="BL5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="BM5" t="s">
         <v>252</v>
@@ -3032,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="AP6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AQ6" t="s">
         <v>195</v>
@@ -3041,10 +3044,10 @@
         <v>209</v>
       </c>
       <c r="AT6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AU6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AV6" t="s">
         <v>201</v>
@@ -3053,10 +3056,10 @@
         <v>195</v>
       </c>
       <c r="AY6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AZ6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="BA6" t="s">
         <v>194</v>
@@ -3100,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="AP7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AQ7" t="s">
         <v>195</v>
@@ -3109,10 +3112,10 @@
         <v>209</v>
       </c>
       <c r="AT7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AU7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AV7" t="s">
         <v>201</v>
@@ -3121,10 +3124,10 @@
         <v>195</v>
       </c>
       <c r="AY7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AZ7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="BA7" t="s">
         <v>194</v>
@@ -3168,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="AP8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AQ8" t="s">
         <v>195</v>
@@ -3177,10 +3180,10 @@
         <v>209</v>
       </c>
       <c r="AT8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AU8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AV8" t="s">
         <v>201</v>
@@ -3189,10 +3192,10 @@
         <v>195</v>
       </c>
       <c r="AY8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AZ8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="BA8" t="s">
         <v>194</v>
@@ -3229,14 +3232,17 @@
       <c r="Z9" t="s">
         <v>270</v>
       </c>
+      <c r="AI9" t="s">
+        <v>280</v>
+      </c>
       <c r="AJ9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO9">
         <v>1</v>
       </c>
       <c r="AP9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AQ9" t="s">
         <v>195</v>
@@ -3245,10 +3251,10 @@
         <v>209</v>
       </c>
       <c r="AT9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AU9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AV9" t="s">
         <v>201</v>
@@ -3257,10 +3263,10 @@
         <v>195</v>
       </c>
       <c r="AY9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AZ9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="BA9" t="s">
         <v>194</v>
@@ -3304,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="AP10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AQ10" t="s">
         <v>195</v>
@@ -3313,10 +3319,10 @@
         <v>209</v>
       </c>
       <c r="AT10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AU10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AV10" t="s">
         <v>201</v>
@@ -3325,10 +3331,10 @@
         <v>195</v>
       </c>
       <c r="AY10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AZ10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="BA10" t="s">
         <v>194</v>
@@ -3369,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="AP11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AQ11" t="s">
         <v>195</v>
@@ -3378,10 +3384,10 @@
         <v>209</v>
       </c>
       <c r="AT11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AU11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AV11" t="s">
         <v>201</v>
@@ -3390,10 +3396,10 @@
         <v>195</v>
       </c>
       <c r="AY11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AZ11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="BA11" t="s">
         <v>194</v>

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -669,19 +669,19 @@
     <t>*Main Asset Number (12)</t>
   </si>
   <si>
-    <t>20000086</t>
-  </si>
-  <si>
-    <t>60000457</t>
+    <t>20000087</t>
+  </si>
+  <si>
+    <t>60000465</t>
   </si>
   <si>
     <t>60000000</t>
   </si>
   <si>
-    <t>60000458</t>
-  </si>
-  <si>
-    <t>60000459</t>
+    <t>60000466</t>
+  </si>
+  <si>
+    <t>60000467</t>
   </si>
   <si>
     <t>*Asset Subnumber (4)</t>
@@ -690,10 +690,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>311</t>
+    <t>317</t>
+  </si>
+  <si>
+    <t>318</t>
   </si>
   <si>
     <t>Asset Description (50)</t>

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -669,19 +669,19 @@
     <t>*Main Asset Number (12)</t>
   </si>
   <si>
-    <t>20000087</t>
-  </si>
-  <si>
-    <t>60000465</t>
+    <t>20000088</t>
+  </si>
+  <si>
+    <t>60000473</t>
   </si>
   <si>
     <t>60000000</t>
   </si>
   <si>
-    <t>60000466</t>
-  </si>
-  <si>
-    <t>60000467</t>
+    <t>60000474</t>
+  </si>
+  <si>
+    <t>60000475</t>
   </si>
   <si>
     <t>*Asset Subnumber (4)</t>
@@ -690,10 +690,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>317</t>
-  </si>
-  <si>
-    <t>318</t>
+    <t>324</t>
+  </si>
+  <si>
+    <t>325</t>
   </si>
   <si>
     <t>Asset Description (50)</t>

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -1125,7 +1125,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1229,7 +1229,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1252,7 +1252,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1275,7 +1275,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1298,7 +1298,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1321,7 +1321,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1344,7 +1344,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1367,7 +1367,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1390,7 +1390,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1413,7 +1413,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1436,7 +1436,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,7 +1459,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1482,7 +1482,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1505,7 +1505,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1528,7 +1528,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1551,7 +1551,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1574,7 +1574,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1597,7 +1597,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1620,7 +1620,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1643,7 +1643,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1666,7 +1666,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1689,7 +1689,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1712,7 +1712,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1735,7 +1735,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1758,7 +1758,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1781,7 +1781,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1804,7 +1804,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1827,7 +1827,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1850,7 +1850,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1873,7 +1873,7 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1896,7 +1896,7 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1919,7 +1919,7 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1942,7 +1942,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1965,7 +1965,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1988,7 +1988,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2011,7 +2011,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2034,7 +2034,7 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2057,7 +2057,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2080,7 +2080,7 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2103,7 +2103,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2126,7 +2126,7 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2149,7 +2149,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2172,7 +2172,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2195,7 +2195,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2218,7 +2218,7 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2241,7 +2241,7 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2264,7 +2264,7 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2287,7 +2287,7 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2310,7 +2310,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2333,7 +2333,7 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2356,7 +2356,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2379,7 +2379,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2402,7 +2402,7 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2425,7 +2425,7 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2448,7 +2448,7 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2471,7 +2471,7 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2494,7 +2494,7 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2517,7 +2517,7 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2540,7 +2540,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>Text</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2563,7 +2563,7 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2586,7 +2586,7 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2609,7 +2609,7 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">

--- a/01_change_upload.xlsx
+++ b/01_change_upload.xlsx
@@ -3517,7 +3517,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20000001</t>
+          <t>20000002</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>60000008</t>
+          <t>60000016</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>60000009</t>
+          <t>60000017</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4134,7 +4134,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>60000010</t>
+          <t>60000018</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
